--- a/result table.xlsx
+++ b/result table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzx/Library/Mobile Documents/com~apple~CloudDocs/大四上/CS 240 算法/CS240-Bandit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4362A6-1937-F440-AB88-49F23869D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409BBC2-407D-E74C-9FD5-28A3AF30FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{8B542613-0CB4-EC4A-9520-0FCA03841402}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8B542613-0CB4-EC4A-9520-0FCA03841402}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,18 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GreddyMix, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreddyMix, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreddyMix, 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Greedy, 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +90,18 @@
   </si>
   <si>
     <t>Greedy, 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreedyMix, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreedyMix, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreedyMix, 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,18 +126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,11 +148,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -481,7 +472,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -493,24 +484,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.39800000000000002</v>
       </c>
       <c r="C2" s="1">
@@ -521,36 +512,36 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.85799999999999998</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.86199999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>0.877</v>
@@ -563,35 +554,35 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.81899999999999995</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.56100000000000005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -605,49 +596,49 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.57899999999999996</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.67300000000000004</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.63100000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.61899999999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.57899999999999996</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
@@ -661,16 +652,16 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.622</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.98599999999999999</v>
       </c>
     </row>
